--- a/SF2025_PAUTAKAN_100HEARTBEAT.xlsx
+++ b/SF2025_PAUTAKAN_100HEARTBEAT.xlsx
@@ -19,21 +19,25 @@
     <sheet state="visible" name="R4-WIND" sheetId="14" r:id="rId17"/>
     <sheet state="visible" name="R4-EARTH" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="R4-WATER" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="R6-CHAMPIONSHIP" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="R6-BATTLE FOR 3RD" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="R5-FIRE" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="R5-WIND" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="R5-EARTH" sheetId="19" r:id="rId22"/>
+    <sheet state="visible" name="R5-WATER" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="R6-CHAMPIONSHIP" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="R6-BATTLE FOR 3RD" sheetId="22" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="pcFWLSrCtlKJ/ZUqqHFhMWTRFBlZPYAUCP8SGzQanDo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId26" roundtripDataChecksum="9JhWv5W2EFrHrTTIOlEXDMkR39sVbRbObbSEEvc6bQ8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="249">
   <si>
     <t>ROUND 1: FIRE (MALACAÑANG OR WHITE HOUSE)</t>
   </si>
@@ -625,6 +629,150 @@
     <t>ERIC</t>
   </si>
   <si>
+    <t>CATEGORY: FACTS ABOUT PHILIPPINES</t>
+  </si>
+  <si>
+    <t>A. ANG PANGALANG “FILIPINAS” AY BINIGAY NG KASTILANG MANLALAKBAY NA SI RUY LOPEZ DE VILLALOBOS NOONG 1553 (CORRECT ANSWER: 1543)</t>
+  </si>
+  <si>
+    <t>A. ANG PANGALANG “FILIPINAS” AY BINIGAY NG KASTILANG MANLALAKBAY NA SI RUY LOPEZ DE VILLALOBOS NOONG 1553
+B. SA SIMULA, ANG PANGALANG “LAS ISLAS FELIPINAS” AY PARA SA MGA ISLA NG LEYTE AT SAMAR. KALAUNAN, GINAMIT NA ITO PARA SA BUONG KAPULUAN
+C. BAGO DUMATING ANG MGA KASTILA, MAY IBA’T-IBANG TAWAG SA KAPULUAN. KABILANG DITO ANG “MA-I” NA GINAMIT NG MGA MANGANGALAKAL NA TSINO NOONG IKA-13 SIGLO AT “PANYUPAYANA” NA GINAMIT NAMAN NG MGA INDIAN.
+D. ANG SIKAT NA BANSAG NA “PERLAS NG SILANGAN” OR PEARL OF THE ORIENT AY UNANG GINAMIT NG PARING SI PADRE JUAN DELGADO NOONG 1751 AT PINASIKAT PA NI JOSE RIZAL SA KANYANG HULING TULA NA PINAMAGATANG “MI ULTIMO ADIOS”</t>
+  </si>
+  <si>
+    <t>CATEGORY: PHILIPINE MUSIC</t>
+  </si>
+  <si>
+    <t>C. PILAR “PILITA” GALLARDO CORRALES, KNOWN AS “ASIA’S QUEEN OF SONGS”, WAS THE FIRST FILIPINO ARTIST TO PERFORM IN A FOREIGN COUNTRY (CORRECT ANSWER: PILAR “PILITA” GARRIDO CORRALES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. FRANCIS MAGALONA, OFTEN CALLED THE “MASTER RAPPER,” PIONEERED THE INTEGRATION OF RAP INTO FILIPINO MUSIC, WITH SONGS ADDRESSING SOCIAL AND POLITICAL ISSUES
+B. THE PHILIPPINES’ NATIONAL ANTHEM, “LUPANG HINIRANG” WAS COMPOSED BY JULIAN FELIPE Y REYES IN 189
+C. PILAR “PILITA” GALLARDO CORRALES, KNOWN AS “ASIA’S QUEEN OF SONGS”, WAS THE FIRST FILIPINO ARTIST TO PERFORM IN A FOREIGN COUNTRY (CORRECT ANSWER: PILAR “PILITA” GARRIDO CORRALES)
+D. RAYMUNDO “RYAN” CIPRIANO PUJANTE CAYABYAB, A NATIONAL ARIST OF THE PHILIPPINES, IS A PROLIFIC COMPOSER AND MUSICAL DIRECTOR KNOWN FOR HIS DIVERSE WORKS </t>
+  </si>
+  <si>
+    <t>CATEGORY: LARONG PINOY</t>
+  </si>
+  <si>
+    <t>ANG SIPA O “SEPAK TAKRAW” AY TRADISYUNAL NA LARONG PINOY KUNG SAAN ANG LAYUNIN AY PANATILIHING NAKALUTANG ANG ISANG MALIIT NA PATO SA PAMAMAGITAN NG PAGSIPA DITO (CORRECT ANSWER: MAGKAIBA ANG SIPA AT SEPAK TAKRAW. ANG TINUTUKOY DITO AY SIPA LAMANG. ANG SEPAK TAKRAW AY MAS ORGANISADO AT MAS KILALA SA IBANG BANSA BILANG “KICK VOLLEYBALL” AT NILALARO NG TATLONG MANLALARO SA ISANG GRUPO NA MAY LAYUNIN IPASA ANG “RATTAN BALL” SA KABILANG NET)</t>
+  </si>
+  <si>
+    <t>A. ANG PATINTERO O “HARANG TAGA” AY MAY LAYUNIN NA MAKADAAN SA MGA LINYA NANG HINDI NATATAYA NG KALABAN
+B. ANG LARONG GINAGAMITAN NG LATA AT TSINELAS, AT LAYUNIN AY MATUMBOK ANG LATA AT MAITAYO ITO BAGO MAHULI NG TAYA AY ANG TUMBANG PRESO.
+C. ANG SIPA O “SEPAK TAKRAW” AY TRADISYUNAL NA LARONG PINOY KUNG SAAN ANG LAYUNIN AY PANATILIHING NAKALUTANG ANG ISANG MALIIT NA PATO SA PAMAMAGITAN NG PAGSIPA DITO
+D. ANG LARONG PINOY KUNG SAAN GUMAGAMIT NG PAMATO AT BINABALANSE ANG KATAWAN SA NILALAKARAN NA MGA KAHONG IGINUHIT SA LUPA AT TINATAWAG NA PIKO.</t>
+  </si>
+  <si>
+    <t>CATEGORY: KULTURA SA PILIPINAS</t>
+  </si>
+  <si>
+    <t>PILIPINAS ANG PANGATLO SA MAY PINAKAMAHABANG MAGDIWANG NG KAPASKUHAN SA BUONG MUNDO. NAGSISIMULA ANG SELEBRASYON NG PASKO SA PILIPINAS SA PAGPASOK PA LANG NG "BER MONTHS" (SETYEMBRE, OKTUBRE, NOBYEMBRE, AT DISYEMBRE) AT NAGTATAPOS SA ENERO, SA ARAW NG TATLONG HARI. KABILANG SA PAGDIRIWANG NA ITO ANG MGA SIMBANG GABI AT IBA'T IBANG TRADISYON (CORRECT ANSWER: PILIPINAS LANG ANG MAY PINAKAMAHABANG MAGDIWANG NG KAPASKUHAN SA BUONG MUNDO)</t>
+  </si>
+  <si>
+    <t>A. KILALA ANG MGA PILIPINO SA BUONG MUNDO BILANG MAHILIG MAG-TEXT AT MAG-SOCIAL MEDIA
+B. PILIPINAS ANG PANGATLO SA MAY PINAKAMAHABANG MAGDIWANG NG KAPASKUHAN SA BUONG MUNDO. NAGSISIMULA ANG SELEBRASYON NG PASKO SA PILIPINAS SA PAGPASOK PA LANG NG "BER MONTHS" (SETYEMBRE, OKTUBRE, NOBYEMBRE, AT DISYEMBRE) AT NAGTATAPOS SA ENERO, SA ARAW NG TATLONG HARI. KABILANG SA PAGDIRIWANG NA ITO ANG MGA SIMBANG GABI AT IBA'T IBANG TRADISYON
+C. ANG "BAYANIHAN" AY ISA SA PINAKAMAHALAGANG ASPETO NG KULTURANG PILIPINO. SA KABILA NG MGA PAGSUBOK, KILALA ANG MGA PILIPINO SA PAGIGING MASAYAHIN AT MAY POSITIBONG PANANAW SA BUHAY
+D. ANG PAGGAMIT NG MGA SALITANG "PO" AT "OPO" SA PAKIKIPAG-USAP SA MGA NAKATATANDA AY ISANG NATATANGING KAUGALIAN NG MGA PILIPINO. ITO AY NAGPAPAKITA NG PAGRESPETO AT PAGKILALA SA EDAD AT KATAYUAN NG KAUSAP</t>
+  </si>
+  <si>
+    <t>CATEGORY: SCIENCE AND NATURE</t>
+  </si>
+  <si>
+    <t>THERE ARE 116 ELEMENTS ON THE PERIODIC TABLE (CORRECT ANSWER: 118)</t>
+  </si>
+  <si>
+    <t>A. THE SMALLEST PLANET IN OUR SOLAR SYSTEM IS MERCURY
+B. THERE ARE 116 ELEMENTS ON THE PERIODIC TABLE (CORRECT ANSWER: 118)
+C. THE STRONGEST MUSCLE IN THE HUMAN BODY IS THE JAW MUSCLE
+D. THE SUN IS ROUGHLY 4.6 BILLION YEARS OLD</t>
+  </si>
+  <si>
+    <t>CATEGORY: MGA PASYALAN SA PILIPINAS</t>
+  </si>
+  <si>
+    <t>ANG SM MALL ASIA AY OPISYAL NA NAGBUKAS NOONG 2004 AT MAKIKITA SA BAY CITY, PASAY (CORRECT ANSWER: MAY 2006)</t>
+  </si>
+  <si>
+    <t>A. ANG SM MALL ASIA AY OPISYAL NA NAGBUKAS NOONG 2004 AT MAKIKITA SA BAY CITY, PASAY
+B. ANG SM MEGAMALL AY MAKIKITA SA ORTIGAS CENTER, MANDALUYONG CITY AT ITO MAY ICE SKATING RINK.
+C. ANG GLORIETTA SHOPPING MALL AY ORIHINAL NA “OUTDOOR STAGE” NOONG 1970
+D. SA KASALUKUYAN (SEPTEMBER 2025), MAYROON 88 SM SUPERMALLS SA PILIPINAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORY: FILIPINO ACTORS AND ACTRESS </t>
+  </si>
+  <si>
+    <t>A. ANG TINAGURIANG “ASIA’S SUPERSTAR” AT “BOX OFFICE PRINCESS” PARA SA MGA TANYANG NIYANG PELIKULA GAYA NG THE HOWS OF US AT HELLO, LOVE, GOODBYE AY SI KATHRYN CHANDRIA MANUEL BERNARDO. (CORRECT ANSWER: SI KATHRYN BERNARDO AY TINAGURIANG BOX OFFICE QUEEN)</t>
+  </si>
+  <si>
+    <t>A. ANG TINAGURIANG “ASIA’S SUPERSTAR” AT “BOX OFFICE PRINCESS” PARA SA MGA TANYANG NIYANG PELIKULA GAYA NG THE HOWS OF US AT HELLO, LOVE, GOODBYE AY SI KATHRYN CHANDRIA MANUEL BERNARDO.
+B. SI VILMA SANTOS AY ISANG BETERAONG ARTISTA NA TINAGURIANG “STAR FOR ALL SEASON”
+C. SI NORA AUNOR NAMAN ANG “SUPERSTAR” NG PHILIPPINE CINEMA AT SIKAT SA MGA PELIKULANG HIMALA AT BONA. 
+D. SI RICHARD REYES FAULKERSON, JR. OR MAS KILALA BILANG ALDEN RICHARDS AY NAGING TANYAG SA TAMBALANG “ALDUB” AT KILALA SA PELIKULANG HELLO, LOVE, GOODBYE</t>
+  </si>
+  <si>
+    <t>CATEGORY: VOLCANOES</t>
+  </si>
+  <si>
+    <t>B. MOUNT KANLAON IS CONSIDERED THE PHILIPPINES' FOURTH MOST ACTIVE VOLCANO, IT HAD A FOURTH CRATER FORMED DURING ITS 1981 ERUPTION AND SEVERAL OTHER SIGNIFICANT ERUPTIONS THROUGHOUT HISTORY (CORRECT ANSWER: BULUSAN)</t>
+  </si>
+  <si>
+    <t>A. THE ERUPTION OF MOUNT PINATUBO HAD A GLOBAL EFFECT BY INJECTING SULFUR DIOXIDE INTO THE ATMOSPHERE, WHICH CAUSED A TEMPORARY DROP IN GLOBAL TEMPERATURES
+B. MOUNT KANLAON IS CONSIDERED THE PHILIPPINES' FOURTH MOST ACTIVE VOLCANO, IT HAD A FOURTH CRATER FORMED DURING ITS 1981 ERUPTION AND SEVERAL OTHER SIGNIFICANT ERUPTIONS THROUGHOUT HISTORY 
+C. MOUNT APO IS THE HIGHEST PEAK IN THE PHILIPPINES, MOUNT APO IS A STRATOVOLCANO WITH A FLAT TOP AND A SMALL LAKE WITHIN ITS CRATER
+D. MOUNT MAYON IS FAMOUS FOR ITS NEAR-PERFECT, SYMMETRICAL CONE SHAPE, CONSIDERED THE MOST PERFECTLY FORMED IN THE WORLD</t>
+  </si>
+  <si>
+    <t>CATEGORY: HISTORY</t>
+  </si>
+  <si>
+    <t>D. SI JOSE PALMA ANG KOMPOSITOR NA GUMAWA NG ATING PAMBANSANG AWIT NA LUPANG HINIRANG. (CORRECT ANSWER: SI JULIAN REYES FELIPE ANG KOMPOSITOR. SAMANTALANG SI JOSE PALMA NAMAN ANG SUMULAT NG LIRIKO)</t>
+  </si>
+  <si>
+    <t>A. “FILIPINAS” ANG DATING TAWAG SA PILIPINAS 
+B. SI EMILIO AGUINALDO ANG UNANG PANGULO NG PIIPINAS
+C. ANG PINAKAMATANDANG LUNGSOD SA PILIPINAS AY ANG CEBU 
+D. SI JOSE PALMA ANG KOMPOSITOR NA GUMAWA NG ATING PAMBANSANG AWIT NA LUPANG HINIRANG</t>
+  </si>
+  <si>
+    <t>CATEGORY: PHILIPPINE PRESIDENTS</t>
+  </si>
+  <si>
+    <t>SINA SERGIO OSMENA AT MANUEL ROXAS AY NAGING MAGKAKLASE SA COLEGIO SAN JUAN DE LETRAN. (CORRECT ANSWER: SERGIO OSMENA AT MANUEL QUEZON)</t>
+  </si>
+  <si>
+    <t>A. ANG DATING PANGULONG JOSEPH EJERCITO ESTRADA O ERAP AY ISANG DATING AKTOR AT NAGSILBI BILANG ALKALDE NG SAN JUAN AT SENADOR BAGO NAGING PANGULO NG PILIPINAS NOONG 1998.
+B. SI DIOSDADO MACAPAGAL ANG NAGLIPAT NG PAGDIRIWANG NG ARAW NG KALAYAAN MULA JULYO 4 PATUNGONG HUNYO 12, BILANG PAGKILALA SA DEKLARASYON NG KALAYAAN MULA SA ESPANYA NOONG 1898.
+C. SI EMILIO AGUINALDO ANG PINAKABATANG NAGING PRESIDENTE NG PILIPINAS SA TAON GULANG NA 29.
+D. SINA SERGIO OSMENA AT MANUEL ROXAS AY NAGING MAGKAKLASE SA COLEGIO SAN JUAN DE LETRAN.</t>
+  </si>
+  <si>
+    <t>CATEGORY: ANIMALS</t>
+  </si>
+  <si>
+    <t>B. SAINT BERNARD ARE BREED OF DOGS THAT ARE GENTLE GIANTS AND SOMETIMES CALLED “APOLLO OF DOGS” (CORRECT ANSWER: GREAT DANES)</t>
+  </si>
+  <si>
+    <t>A. SHRIMP ARE DIVERSE AQUATIC CRUSTACEANS, SOME OF WHICH CAN PRODUCE LOUD SNAPPING SOUNDS
+B. SAINT BERNARD ARE BREED OF DOGS THAT ARE GENTLE GIANTS AND SOMETIMES CALLED “APOLLO OF DOGS”
+C. CARABAOS OR “KALABAW” ARE PHILIPPINE WATER BUFFALO.
+D. THE PHILIPPINES IS HOME TO FIVE OF THE WORLD’S SEVEN SEA TURTLE SPECIES AND ONE OF IT IS “BAKOKO”</t>
+  </si>
+  <si>
+    <t>CATEGORY: KAPE</t>
+  </si>
+  <si>
+    <t>ANG KAPE AY BEANS AT HINDI ITO PRUTAS. (CORRECT ANSWER: KAHIT TINATAWAG ITONG “COFFEE BEANS”, AG KAPE AY BUTO O BUTIL NA GALING SA ISANG PULANG PRUTAS NA TINATAWAG NA “COFFEE CHERRY”)</t>
+  </si>
+  <si>
+    <t>A. NAGSIMULA ANG PRODUKSYON NG KAPE SA PILIPINAS NOONG 1740.
+B. ANG KAPE AY BEANS AT HINDI ITO PRUTAS. 
+C. ANG ARABICA ANG PINAKAPOPULAR NA URI NG KAPE SA BUONG MUNDO NA BUMUBUO NG HUMIGIT-KUMULANG 60% NG PANDAIGDIGANG PRODUKSYON. ITO ANG KARANIWANG GINAGAMIT SA MGA SPECIALTY AT GOURMET COFFEE
+D. ANG ESPRESSO AY GALING SA SALITANG ITALYANO NA ANG IBIG SABIHIN AY “PINIGA”</t>
+  </si>
+  <si>
     <t>MECHANICS: THE PLAYER IS SHOWN A NUMBER AND A MATHEMATICAL OPERATION. THE ANWER TO THAT OPERATION BECOMES THE NEXT NUMBER TO A DIFFERENT MATHEMATICAL OPERATION. YOU MUST COMPLETE THE TEN SETS OF MATHEMATICAL OPERATION TO EARN FULL POINTS.</t>
   </si>
   <si>
@@ -689,7 +837,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -747,6 +895,36 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
@@ -777,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -794,12 +972,27 @@
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -850,7 +1043,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9764,7 +9973,7 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FF202122"/>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -9772,335 +9981,66 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.25"/>
-    <col customWidth="1" min="2" max="2" width="49.38"/>
+    <col customWidth="1" min="1" max="1" width="104.88"/>
+    <col customWidth="1" min="2" max="2" width="83.88"/>
     <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>193</v>
       </c>
+      <c r="B1" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="12">
-        <v>82.0</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="A2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="12">
-        <v>119.0</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="A3" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="12">
-        <v>77.0</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="A4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="12">
-        <v>35.0</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="A5" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="A6" s="13" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="12">
-        <v>42.0</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="12">
-        <v>126.0</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="12">
-        <v>64.0</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="12">
-        <v>111.0</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="12">
-        <v>37.0</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
@@ -11109,7 +11049,7 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FF202122"/>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -11117,319 +11057,1140 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.25"/>
-    <col customWidth="1" min="2" max="2" width="49.38"/>
+    <col customWidth="1" min="1" max="1" width="104.88"/>
+    <col customWidth="1" min="2" max="2" width="83.88"/>
     <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>193</v>
+      <c r="A1" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="B3" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="104.88"/>
+    <col customWidth="1" min="2" max="2" width="83.88"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="12">
-        <v>103.0</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="A3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="A4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="A5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="12">
-        <v>110.0</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="A6" s="13" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
@@ -13568,6 +14329,3754 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="104.88"/>
+    <col customWidth="1" min="2" max="2" width="83.88"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF202122"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="38.25"/>
+    <col customWidth="1" min="2" max="2" width="49.38"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="17">
+        <v>82.0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="17">
+        <v>119.0</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="17">
+        <v>77.0</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="17">
+        <v>35.0</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="17">
+        <v>42.0</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="17">
+        <v>126.0</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="17">
+        <v>64.0</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="17">
+        <v>111.0</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="17">
+        <v>37.0</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF202122"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="38.25"/>
+    <col customWidth="1" min="2" max="2" width="49.38"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="17">
+        <v>103.0</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="17">
+        <v>100.0</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="17">
+        <v>110.0</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -18014,7 +22523,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.13"/>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
     <col customWidth="1" min="2" max="2" width="46.88"/>
     <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>

--- a/SF2025_PAUTAKAN_100HEARTBEAT.xlsx
+++ b/SF2025_PAUTAKAN_100HEARTBEAT.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="249">
   <si>
     <t>ROUND 1: FIRE (MALACAÑANG OR WHITE HOUSE)</t>
   </si>
@@ -515,8 +515,27 @@
     <t>PULMONYA</t>
   </si>
   <si>
-    <t>MECHANICS: THE PLAYER IS GIVEN EIGHT POSSIBLE ANSWERS. THEY MUST CORRECTLY IDENTIFY THE FOUR CORRECT ANSWERS THAT FITS THE GIVEN STATEMENT OR CATEGORY. YOU WILL HEAR A BUZZER IF NOT ALL FOUR ANSWERS ARE CORRECT, THIS CONTINUES UNTIL ALL FOUR ANSWERS ARE CORRECT.
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF202122"/>
+        <sz val="18.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">MECHANICS: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="0"/>
+        <color rgb="FF202122"/>
+        <sz val="19.0"/>
+        <u/>
+      </rPr>
+      <t>THE PLAYER IS GIVEN EIGHT POSSIBLE ANSWERS. THEY MUST CORRECTLY IDENTIFY THE FOUR CORRECT ANSWERS THAT FITS THE GIVEN STATEMENT OR CATEGORY. YOU WILL HEAR A BUZZER IF NOT ALL FOUR ANSWERS ARE CORRECT, THIS CONTINUES UNTIL ALL FOUR ANSWERS ARE CORRECT.
 INDIVIDUALS THAT EITHER IS A FOUNDER OR PRESIDENT OF THE KATIPUNAN (DEODATO ARELLANO, LADISLAO DIWA, TEODORO PLATA, ANDRES BONIFACIO)</t>
+    </r>
   </si>
   <si>
     <t>EMILIO AGUINALDO</t>
@@ -565,10 +584,10 @@
     <t>TEMPERANCE</t>
   </si>
   <si>
-    <t>KINDNESS</t>
+    <t>FORTITUDE</t>
   </si>
   <si>
-    <t>FORTITUDE</t>
+    <t>KINDNESS</t>
   </si>
   <si>
     <t>MECHANICS: THE PLAYER IS GIVEN EIGHT POSSIBLE ANSWERS. THEY MUST CORRECTLY IDENTIFY THE FOUR CORRECT ANSWERS THAT FITS THE GIVEN STATEMENT OR CATEGORY. YOU WILL HEAR A BUZZER IF NOT ALL FOUR ANSWERS ARE CORRECT, THIS CONTINUES UNTIL ALL FOUR ANSWERS ARE CORRECT.
@@ -593,10 +612,10 @@
     <t>RICE COOKER</t>
   </si>
   <si>
-    <t>STAR TREK POSTER</t>
+    <t>FLAGS</t>
   </si>
   <si>
-    <t>FLAGS</t>
+    <t>STAR TREK POSTER</t>
   </si>
   <si>
     <t xml:space="preserve">MECHANICS: THE PLAYER IS GIVEN EIGHT POSSIBLE ANSWERS. THEY MUST CORRECTLY IDENTIFY THE FOUR CORRECT ANSWERS THAT FITS THE GIVEN STATEMENT OR CATEGORY. YOU WILL HEAR A BUZZER IF NOT ALL FOUR ANSWERS ARE CORRECT, THIS CONTINUES UNTIL ALL FOUR ANSWERS ARE CORRECT.
@@ -611,6 +630,9 @@
     <t>HENRY</t>
   </si>
   <si>
+    <t>MIRASOL</t>
+  </si>
+  <si>
     <t>ESTER</t>
   </si>
   <si>
@@ -621,9 +643,6 @@
   </si>
   <si>
     <t>CARDO</t>
-  </si>
-  <si>
-    <t>MIRASOL</t>
   </si>
   <si>
     <t>ERIC</t>
@@ -837,7 +856,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -871,11 +890,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -896,20 +910,20 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="18.0"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF202122"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -917,11 +931,6 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF202122"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -955,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -964,35 +973,23 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1295,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="81.63"/>
     <col customWidth="1" min="2" max="2" width="32.63"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1430,17 +1426,17 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2443,7 +2439,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2452,7 +2447,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2460,7 +2455,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2468,7 +2463,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2476,7 +2471,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2484,7 +2479,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2492,7 +2487,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -3523,7 +3518,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -3532,7 +3526,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3540,7 +3534,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3548,7 +3542,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3556,7 +3550,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3564,7 +3558,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3572,7 +3566,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -4603,7 +4597,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -4612,7 +4605,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4620,7 +4613,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4628,7 +4621,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4636,7 +4629,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4644,7 +4637,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4652,7 +4645,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -5683,51 +5676,63 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="32.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -6758,7 +6763,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -6767,42 +6771,54 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>172</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>174</v>
+      <c r="C5" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -7833,7 +7849,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -7842,42 +7857,54 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>183</v>
+      <c r="C5" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -8908,7 +8935,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -8917,42 +8943,54 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -9983,7 +10021,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="104.88"/>
     <col customWidth="1" min="2" max="2" width="83.88"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -9995,40 +10032,40 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -11059,7 +11096,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="104.88"/>
     <col customWidth="1" min="2" max="2" width="83.88"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -11071,40 +11107,40 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -12135,7 +12171,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="104.88"/>
     <col customWidth="1" min="2" max="2" width="83.88"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -12147,35 +12182,35 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>219</v>
       </c>
     </row>
@@ -13209,7 +13244,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="81.63"/>
     <col customWidth="1" min="2" max="2" width="24.0"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -14342,7 +14376,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="104.88"/>
     <col customWidth="1" min="2" max="2" width="83.88"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -14354,35 +14387,35 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>222</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15416,7 +15449,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -15425,324 +15457,324 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>82.0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>119.0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>77.0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>35.0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>7.0</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>42.0</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>126.0</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>64.0</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>111.0</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>37.0</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
@@ -16761,7 +16793,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -16770,308 +16801,308 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>103.0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>100.0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>110.0</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
@@ -18089,7 +18120,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="106.25"/>
-    <col customWidth="1" min="2" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -18149,7 +18179,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -18165,7 +18195,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -18173,7 +18203,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -18181,7 +18211,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -19222,7 +19252,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="106.25"/>
     <col customWidth="1" min="2" max="2" width="23.25"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -20355,7 +20384,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="27.63"/>
     <col customWidth="1" min="2" max="2" width="50.13"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -20364,7 +20392,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -20372,7 +20400,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -20380,7 +20408,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -20388,7 +20416,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -20396,7 +20424,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -20404,7 +20432,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -20412,7 +20440,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
@@ -21440,7 +21468,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="27.63"/>
     <col customWidth="1" min="2" max="2" width="50.13"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -22525,7 +22552,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="19.0"/>
     <col customWidth="1" min="2" max="2" width="46.88"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -22534,7 +22560,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -22542,7 +22568,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22550,7 +22576,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -22558,7 +22584,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -22566,7 +22592,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22574,7 +22600,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -22582,19 +22608,19 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
@@ -23610,7 +23636,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -23619,7 +23644,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -23627,7 +23652,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -23635,7 +23660,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -23643,7 +23668,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -23651,7 +23676,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -23659,7 +23684,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -24695,7 +24720,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.25"/>
     <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -24704,7 +24728,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -24712,7 +24736,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -24720,7 +24744,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -24728,7 +24752,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -24736,7 +24760,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -24744,7 +24768,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
